--- a/StudentRepositoryData.xlsx
+++ b/StudentRepositoryData.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1333,17 +1333,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://github.com/VaishuDeshmukh-2003</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>https://github.com/VaishuDeshmukh-2003/APJFSA_N.git</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>22</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Success</t>
         </is>
       </c>
     </row>
